--- a/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E601BEE0-F030-4796-9926-812E5D331E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{590B1E0C-8CBD-414A-8A10-C2D941B84BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA7DF88F-359C-4A62-A80F-3036293BA862}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC24EF13-5E06-4876-A056-E8348867FF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,1132 +107,1141 @@
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>9,91%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>9,58%</t>
@@ -1241,52 +1250,49 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>11,48%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C690BC2E-11C1-48E3-8376-95B2575A5FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14978CA2-45E6-4FE7-B2DD-05AB7FABFF98}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1942,7 @@
         <v>474</v>
       </c>
       <c r="I6" s="7">
-        <v>478996</v>
+        <v>478995</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1987,7 +1993,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2653,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01EC2AB-FCEE-42A1-A334-C04091CADE1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9143EE4-438F-466A-A113-48944612F741}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,13 +2783,13 @@
         <v>31918</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>75</v>
@@ -2792,13 +2798,13 @@
         <v>82080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2807,13 +2813,13 @@
         <v>113998</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2834,13 @@
         <v>45290</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -2843,13 +2849,13 @@
         <v>87309</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -2858,13 +2864,13 @@
         <v>132599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2885,13 @@
         <v>337189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>441</v>
@@ -2894,13 +2900,13 @@
         <v>465157</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>754</v>
@@ -2909,13 +2915,13 @@
         <v>802345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2989,13 @@
         <v>1949</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3291,13 +3297,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3306,13 +3312,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3321,13 +3327,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3401,13 @@
         <v>34853</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3410,13 +3416,13 @@
         <v>86766</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -3425,13 +3431,13 @@
         <v>121619</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3452,13 @@
         <v>54573</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -3461,13 +3467,13 @@
         <v>102239</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3476,13 +3482,13 @@
         <v>156812</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3503,13 @@
         <v>470211</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>518</v>
@@ -3512,13 +3518,13 @@
         <v>550860</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>945</v>
@@ -3527,13 +3533,13 @@
         <v>1021071</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E050EE62-726A-43E4-872F-D57DFE41BD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475779E-6E0C-4E64-A427-635167260E58}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3625,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3732,13 +3738,13 @@
         <v>22094</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3747,13 +3753,13 @@
         <v>50910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3762,13 +3768,13 @@
         <v>73004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3789,13 @@
         <v>41402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -3798,13 +3804,13 @@
         <v>101979</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -3813,13 +3819,13 @@
         <v>143382</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3840,13 @@
         <v>290405</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>348</v>
@@ -3849,13 +3855,13 @@
         <v>401868</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>663</v>
@@ -3864,13 +3870,13 @@
         <v>692272</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,7 +3888,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3938,13 +3944,13 @@
         <v>7858</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3953,13 +3959,13 @@
         <v>4540</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3968,13 +3974,13 @@
         <v>12398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3995,13 @@
         <v>7316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -4004,13 +4010,13 @@
         <v>28262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4019,13 +4025,13 @@
         <v>35578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4046,13 @@
         <v>177358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4055,13 +4061,13 @@
         <v>155272</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>311</v>
@@ -4070,13 +4076,13 @@
         <v>332630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4150,13 @@
         <v>2308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4165,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4174,13 +4180,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4201,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4210,13 +4216,13 @@
         <v>3622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4225,13 +4231,13 @@
         <v>5382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4252,13 @@
         <v>37961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4261,13 +4267,13 @@
         <v>30052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4276,13 +4282,13 @@
         <v>68013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4356,13 @@
         <v>32260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4368,10 +4374,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -4380,13 +4386,13 @@
         <v>87710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4407,13 @@
         <v>50478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4416,13 +4422,13 @@
         <v>133864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -4431,13 +4437,13 @@
         <v>184342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4458,13 @@
         <v>505725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>502</v>
@@ -4467,13 +4473,13 @@
         <v>587191</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>1034</v>
@@ -4482,13 +4488,13 @@
         <v>1092916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D22F3-7ECD-43A5-BCC7-60ED6C4AD4A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2C1D1-E493-49CC-9A05-BE306A0DF99C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4580,7 +4586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4687,13 +4693,13 @@
         <v>30285</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>169</v>
@@ -4702,13 +4708,13 @@
         <v>89009</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>220</v>
@@ -4717,13 +4723,13 @@
         <v>119293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4744,13 @@
         <v>41823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -4753,13 +4759,13 @@
         <v>136402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>301</v>
@@ -4768,13 +4774,13 @@
         <v>178225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4795,13 @@
         <v>214603</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>608</v>
@@ -4804,13 +4810,13 @@
         <v>327170</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>921</v>
@@ -4819,13 +4825,13 @@
         <v>541773</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4899,13 @@
         <v>9261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4908,13 +4914,13 @@
         <v>15654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4923,13 +4929,13 @@
         <v>24915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4950,13 @@
         <v>20146</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -5099,13 +5105,13 @@
         <v>2579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5114,13 +5120,13 @@
         <v>619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5129,13 +5135,13 @@
         <v>3198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5156,13 @@
         <v>4436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5165,13 +5171,13 @@
         <v>6448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5180,13 +5186,13 @@
         <v>10884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5207,13 @@
         <v>104971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -5216,13 +5222,13 @@
         <v>71178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -5231,13 +5237,13 @@
         <v>176149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,16 +5308,16 @@
         <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>42125</v>
+        <v>42124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -5320,13 +5326,13 @@
         <v>105282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -5335,13 +5341,13 @@
         <v>147406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5362,13 @@
         <v>66406</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -5371,13 +5377,13 @@
         <v>173251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5386,13 +5392,13 @@
         <v>239657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,16 +5410,16 @@
         <v>853</v>
       </c>
       <c r="D18" s="7">
-        <v>584734</v>
+        <v>584733</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>1187</v>
@@ -5422,13 +5428,13 @@
         <v>738714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>2040</v>
@@ -5437,13 +5443,13 @@
         <v>1323448</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,7 +5461,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693264</v>
+        <v>693263</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{590B1E0C-8CBD-414A-8A10-C2D941B84BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6EE8FC-508D-4008-AC27-06E564F87004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC24EF13-5E06-4876-A056-E8348867FF9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2C98274-0EBE-443C-9949-BA9A85AE0E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,1189 +80,1189 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
   </si>
   <si>
     <t>15,75%</t>
@@ -1704,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14978CA2-45E6-4FE7-B2DD-05AB7FABFF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB858F-E273-4760-9E6A-5A793FF1FE51}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1942,7 +1942,7 @@
         <v>474</v>
       </c>
       <c r="I6" s="7">
-        <v>478995</v>
+        <v>478996</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1993,7 +1993,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2659,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9143EE4-438F-466A-A113-48944612F741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE572463-920C-4AE5-A15A-DB8B0F2D851B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2816,10 +2816,10 @@
         <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2834,13 @@
         <v>45290</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -2849,13 +2849,13 @@
         <v>87309</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -2864,13 +2864,13 @@
         <v>132599</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2885,13 @@
         <v>337189</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>441</v>
@@ -2900,13 +2900,13 @@
         <v>465157</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>754</v>
@@ -2915,13 +2915,13 @@
         <v>802345</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2989,13 @@
         <v>1949</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3004,13 +3004,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3019,13 +3019,13 @@
         <v>4373</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>8240</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3055,13 +3055,13 @@
         <v>13878</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3070,13 +3070,13 @@
         <v>22118</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>108476</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -3106,13 +3106,13 @@
         <v>66772</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3121,13 +3121,13 @@
         <v>175248</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3195,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3210,13 +3210,13 @@
         <v>2262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3225,13 +3225,13 @@
         <v>3248</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3246,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3261,13 +3261,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3276,13 +3276,13 @@
         <v>2095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3312,13 +3312,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3327,13 +3327,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3401,7 @@
         <v>34853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>191</v>
@@ -3614,7 +3614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475779E-6E0C-4E64-A427-635167260E58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F02FA-3597-48E0-9610-0DC3A41FB66C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3741,10 +3741,10 @@
         <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3753,13 +3753,13 @@
         <v>50910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3768,13 +3768,13 @@
         <v>73004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3789,13 @@
         <v>41402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -3804,13 +3804,13 @@
         <v>101979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -3819,13 +3819,13 @@
         <v>143382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3840,13 @@
         <v>290405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>348</v>
@@ -3855,13 +3855,13 @@
         <v>401868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>663</v>
@@ -3870,13 +3870,13 @@
         <v>692272</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3888,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3944,13 +3944,13 @@
         <v>7858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3959,13 +3959,13 @@
         <v>4540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3974,13 +3974,13 @@
         <v>12398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3995,13 @@
         <v>7316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -4010,13 +4010,13 @@
         <v>28262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4025,13 +4025,13 @@
         <v>35578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>177358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4061,13 +4061,13 @@
         <v>155272</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>311</v>
@@ -4076,13 +4076,13 @@
         <v>332630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4150,13 @@
         <v>2308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4180,13 +4180,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4201,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4216,13 +4216,13 @@
         <v>3622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4231,13 +4231,13 @@
         <v>5382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4252,13 @@
         <v>37961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4267,13 +4267,13 @@
         <v>30052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4282,13 +4282,13 @@
         <v>68013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>32260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4374,10 +4374,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -4386,13 +4386,13 @@
         <v>87710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2C1D1-E493-49CC-9A05-BE306A0DF99C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74DBE1-308D-4A7A-94F8-78FB4F8AAEEE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4729,7 +4729,7 @@
         <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4744,13 @@
         <v>41823</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -4759,13 +4759,13 @@
         <v>136402</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>301</v>
@@ -4774,13 +4774,13 @@
         <v>178225</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4795,13 @@
         <v>214603</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>608</v>
@@ -4810,13 +4810,13 @@
         <v>327170</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>921</v>
@@ -4825,13 +4825,13 @@
         <v>541773</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4899,13 @@
         <v>9261</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4914,13 +4914,13 @@
         <v>15654</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4929,13 +4929,13 @@
         <v>24915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4950,13 @@
         <v>20146</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4965,13 +4965,13 @@
         <v>30402</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -4980,13 +4980,13 @@
         <v>50548</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5001,13 @@
         <v>265159</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>441</v>
@@ -5016,13 +5016,13 @@
         <v>340366</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>824</v>
@@ -5031,13 +5031,13 @@
         <v>605525</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5105,13 @@
         <v>2579</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5120,13 +5120,13 @@
         <v>619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5135,13 +5135,13 @@
         <v>3198</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5156,7 @@
         <v>4436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>377</v>
@@ -5192,7 +5192,7 @@
         <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5207,13 @@
         <v>104971</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -5222,13 +5222,13 @@
         <v>71178</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -5237,13 +5237,13 @@
         <v>176149</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5311,13 @@
         <v>42124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -5326,13 +5326,13 @@
         <v>105282</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -5341,13 +5341,13 @@
         <v>147406</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5362,13 @@
         <v>66406</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -5377,13 +5377,13 @@
         <v>173251</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5392,10 +5392,10 @@
         <v>239657</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>408</v>

--- a/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6EE8FC-508D-4008-AC27-06E564F87004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38900C45-587A-4C6B-802B-8F22A40CFE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2C98274-0EBE-443C-9949-BA9A85AE0E4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28178448-C488-4752-8390-E64D2C05D778}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="416">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1168 +77,1162 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
+    <t>89,23%</t>
+  </si>
+  <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>9,58%</t>
@@ -1247,52 +1241,52 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>11,77%</t>
+    <t>11,48%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB858F-E273-4760-9E6A-5A793FF1FE51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1ACCEC-2DDA-4791-9F3F-08FC5F45A9C8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2659,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE572463-920C-4AE5-A15A-DB8B0F2D851B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A41DE-E0B2-41D3-99D9-06BB208C771D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,13 +2777,13 @@
         <v>31918</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>75</v>
@@ -2798,13 +2792,13 @@
         <v>82080</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2813,10 +2807,10 @@
         <v>113998</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>126</v>
@@ -3004,13 +2998,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3019,13 +3013,13 @@
         <v>4373</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3034,13 @@
         <v>8240</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3055,13 +3049,13 @@
         <v>13878</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3070,13 +3064,13 @@
         <v>22118</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3085,13 @@
         <v>108476</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -3106,13 +3100,13 @@
         <v>66772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3121,13 +3115,13 @@
         <v>175248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3189,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3210,13 +3204,13 @@
         <v>2262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3225,13 +3219,13 @@
         <v>3248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3240,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3261,13 +3255,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3276,13 +3270,13 @@
         <v>2095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3291,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3312,13 +3306,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3327,13 +3321,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3395,13 @@
         <v>34853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3416,13 +3410,13 @@
         <v>86766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -3431,13 +3425,13 @@
         <v>121619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3446,13 @@
         <v>54573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -3467,13 +3461,13 @@
         <v>102239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3482,13 +3476,13 @@
         <v>156812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3497,13 @@
         <v>470211</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>518</v>
@@ -3518,13 +3512,13 @@
         <v>550860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>945</v>
@@ -3533,13 +3527,13 @@
         <v>1021071</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F02FA-3597-48E0-9610-0DC3A41FB66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D09084-0833-4E4B-89F0-2FD3B2BD05B3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3631,7 +3625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3738,13 +3732,13 @@
         <v>22094</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3753,13 +3747,13 @@
         <v>50910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3768,13 +3762,13 @@
         <v>73004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3783,13 @@
         <v>41402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -3804,10 +3798,10 @@
         <v>101979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>232</v>
@@ -3965,7 +3959,7 @@
         <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3974,13 +3968,13 @@
         <v>12398</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3989,13 @@
         <v>7316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -4010,13 +4004,13 @@
         <v>28262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4025,13 +4019,13 @@
         <v>35578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4040,13 @@
         <v>177358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4061,13 +4055,13 @@
         <v>155272</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>311</v>
@@ -4076,13 +4070,13 @@
         <v>332630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4144,13 @@
         <v>2308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4171,7 +4165,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4180,13 +4174,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4216,13 +4210,13 @@
         <v>3622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4231,13 +4225,13 @@
         <v>5382</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>37961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4267,13 +4261,13 @@
         <v>30052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4282,13 +4276,13 @@
         <v>68013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4350,13 @@
         <v>32260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4374,10 +4368,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -4386,13 +4380,13 @@
         <v>87710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4401,13 @@
         <v>50478</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4422,13 +4416,13 @@
         <v>133864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -4437,13 +4431,13 @@
         <v>184342</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4452,13 @@
         <v>505725</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>502</v>
@@ -4473,13 +4467,13 @@
         <v>587191</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>1034</v>
@@ -4488,13 +4482,13 @@
         <v>1092916</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74DBE1-308D-4A7A-94F8-78FB4F8AAEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B869BA-9E95-49CA-8086-BD974FAD020C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4586,7 +4580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4693,13 +4687,13 @@
         <v>30285</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>169</v>
@@ -4708,13 +4702,13 @@
         <v>89009</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>220</v>
@@ -4723,13 +4717,13 @@
         <v>119293</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4738,13 @@
         <v>41823</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -4759,13 +4753,13 @@
         <v>136402</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>301</v>
@@ -4774,13 +4768,13 @@
         <v>178225</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4789,13 @@
         <v>214603</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>608</v>
@@ -4810,13 +4804,13 @@
         <v>327170</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>921</v>
@@ -4825,13 +4819,13 @@
         <v>541773</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4893,13 @@
         <v>9261</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4914,13 +4908,13 @@
         <v>15654</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4929,10 +4923,10 @@
         <v>24915</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>350</v>
@@ -4956,7 +4950,7 @@
         <v>352</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4965,13 +4959,13 @@
         <v>30402</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -4980,13 +4974,13 @@
         <v>50548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4995,13 @@
         <v>265159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>441</v>
@@ -5016,13 +5010,13 @@
         <v>340366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>824</v>
@@ -5031,13 +5025,13 @@
         <v>605525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5099,13 @@
         <v>2579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5120,13 +5114,13 @@
         <v>619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5135,13 +5129,13 @@
         <v>3198</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5150,13 @@
         <v>4436</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5171,13 +5165,13 @@
         <v>6448</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5186,13 +5180,13 @@
         <v>10884</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5201,13 @@
         <v>104971</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -5222,13 +5216,13 @@
         <v>71178</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -5237,10 +5231,10 @@
         <v>176149</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>391</v>
@@ -5308,16 +5302,16 @@
         <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -5326,13 +5320,13 @@
         <v>105282</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -5341,13 +5335,13 @@
         <v>147406</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5356,13 @@
         <v>66406</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -5377,13 +5371,13 @@
         <v>173251</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5392,13 +5386,13 @@
         <v>239657</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,16 +5404,16 @@
         <v>853</v>
       </c>
       <c r="D18" s="7">
-        <v>584733</v>
+        <v>584734</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>1187</v>
@@ -5428,13 +5422,13 @@
         <v>738714</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>2040</v>
@@ -5443,13 +5437,13 @@
         <v>1323448</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5455,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693263</v>
+        <v>693264</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38900C45-587A-4C6B-802B-8F22A40CFE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E40CED-0A01-43FA-A8E5-A9E48A346D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28178448-C488-4752-8390-E64D2C05D778}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5843739A-4853-42ED-AA6A-66CA7753016B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="420">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -989,304 +989,316 @@
     <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1ACCEC-2DDA-4791-9F3F-08FC5F45A9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E42F1D5-D470-4C70-AD54-8B6F93CC3E3F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1948,7 @@
         <v>474</v>
       </c>
       <c r="I6" s="7">
-        <v>478996</v>
+        <v>478995</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1987,7 +1999,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2653,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A41DE-E0B2-41D3-99D9-06BB208C771D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF6BB1E-1086-498B-8FCC-99E4D0B8F469}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3608,7 +3620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D09084-0833-4E4B-89F0-2FD3B2BD05B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F2264D-0EE9-4378-BA01-65064D58E079}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3894,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4563,7 +4575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B869BA-9E95-49CA-8086-BD974FAD020C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6055EDA5-858C-437E-A687-CDBFEEEDCB03}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4684,7 +4696,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>30285</v>
+        <v>28228</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>316</v>
@@ -4699,7 +4711,7 @@
         <v>169</v>
       </c>
       <c r="I4" s="7">
-        <v>89009</v>
+        <v>79914</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>319</v>
@@ -4714,7 +4726,7 @@
         <v>220</v>
       </c>
       <c r="N4" s="7">
-        <v>119293</v>
+        <v>108142</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>322</v>
@@ -4735,46 +4747,46 @@
         <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>41823</v>
+        <v>38324</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
       </c>
       <c r="I5" s="7">
-        <v>136402</v>
+        <v>120256</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>301</v>
       </c>
       <c r="N5" s="7">
-        <v>178225</v>
+        <v>158580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,46 +4798,46 @@
         <v>313</v>
       </c>
       <c r="D6" s="7">
-        <v>214603</v>
+        <v>201961</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>608</v>
       </c>
       <c r="I6" s="7">
-        <v>327170</v>
+        <v>297981</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>921</v>
       </c>
       <c r="N6" s="7">
-        <v>541773</v>
+        <v>499942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,7 +4849,7 @@
         <v>427</v>
       </c>
       <c r="D7" s="7">
-        <v>286711</v>
+        <v>268513</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4852,7 +4864,7 @@
         <v>1015</v>
       </c>
       <c r="I7" s="7">
-        <v>552580</v>
+        <v>498151</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4867,7 +4879,7 @@
         <v>1442</v>
       </c>
       <c r="N7" s="7">
-        <v>839291</v>
+        <v>766664</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4890,40 +4902,40 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>9261</v>
+        <v>8530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>15654</v>
+        <v>14160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>24915</v>
+        <v>22690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>349</v>
@@ -4941,7 +4953,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>20146</v>
+        <v>18571</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>351</v>
@@ -4956,7 +4968,7 @@
         <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>30402</v>
+        <v>27021</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>354</v>
@@ -4971,7 +4983,7 @@
         <v>86</v>
       </c>
       <c r="N9" s="7">
-        <v>50548</v>
+        <v>45593</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>357</v>
@@ -4992,7 +5004,7 @@
         <v>383</v>
       </c>
       <c r="D10" s="7">
-        <v>265159</v>
+        <v>246155</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>360</v>
@@ -5007,7 +5019,7 @@
         <v>441</v>
       </c>
       <c r="I10" s="7">
-        <v>340366</v>
+        <v>414558</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>363</v>
@@ -5022,7 +5034,7 @@
         <v>824</v>
       </c>
       <c r="N10" s="7">
-        <v>605525</v>
+        <v>660713</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>366</v>
@@ -5043,7 +5055,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5058,7 +5070,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5073,7 +5085,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5096,46 +5108,46 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>2579</v>
+        <v>2457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>3198</v>
+        <v>3042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,46 +5159,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>4436</v>
+        <v>4019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>6448</v>
+        <v>5884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>10884</v>
+        <v>9903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,46 +5210,46 @@
         <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>104971</v>
+        <v>98510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>71178</v>
+        <v>64856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
       </c>
       <c r="N14" s="7">
-        <v>176149</v>
+        <v>163366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5261,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5264,7 +5276,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5279,7 +5291,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5302,46 +5314,46 @@
         <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>42125</v>
+        <v>39216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
       </c>
       <c r="I16" s="7">
-        <v>105282</v>
+        <v>94659</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
       </c>
       <c r="N16" s="7">
-        <v>147406</v>
+        <v>133874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,46 +5365,46 @@
         <v>98</v>
       </c>
       <c r="D17" s="7">
-        <v>66406</v>
+        <v>60914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
       </c>
       <c r="I17" s="7">
-        <v>173251</v>
+        <v>153162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
       </c>
       <c r="N17" s="7">
-        <v>239657</v>
+        <v>214076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,46 +5416,46 @@
         <v>853</v>
       </c>
       <c r="D18" s="7">
-        <v>584734</v>
+        <v>546626</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>1187</v>
       </c>
       <c r="I18" s="7">
-        <v>738714</v>
+        <v>777395</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>2040</v>
       </c>
       <c r="N18" s="7">
-        <v>1323448</v>
+        <v>1324021</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,7 +5467,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693264</v>
+        <v>646756</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5470,7 +5482,7 @@
         <v>1696</v>
       </c>
       <c r="I19" s="7">
-        <v>1017247</v>
+        <v>1025215</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5485,7 +5497,7 @@
         <v>2717</v>
       </c>
       <c r="N19" s="7">
-        <v>1710511</v>
+        <v>1671971</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
